--- a/NJ/Overview.xlsx
+++ b/NJ/Overview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Run</t>
   </si>
@@ -63,39 +63,9 @@
     <t>Sanctus+TuSolus</t>
   </si>
   <si>
-    <t>0.00391</t>
-  </si>
-  <si>
-    <t>0.08203</t>
-  </si>
-  <si>
-    <t>0.00781</t>
-  </si>
-  <si>
-    <t>0.01563</t>
-  </si>
-  <si>
-    <t>0.03125</t>
-  </si>
-  <si>
     <t>Error tol.</t>
   </si>
   <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>0.09766</t>
-  </si>
-  <si>
-    <t>0.01172</t>
-  </si>
-  <si>
-    <t>0.00521</t>
-  </si>
-  <si>
-    <t>0.05078</t>
-  </si>
-  <si>
     <t>Messen</t>
   </si>
   <si>
@@ -123,7 +93,7 @@
     <t>beide Flors</t>
   </si>
   <si>
-    <t>1 Flor</t>
+    <t>Negative Kante!!</t>
   </si>
 </sst>
 </file>
@@ -462,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +443,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -484,19 +454,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -506,114 +476,57 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="E2">
-        <v>19.220829999999999</v>
-      </c>
       <c r="F2">
         <f>E2*4</f>
-        <v>76.883319999999998</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>4.1020000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>15.90724</v>
-      </c>
       <c r="F3">
         <f t="shared" ref="F3:F55" si="0">E3*4</f>
-        <v>63.628959999999999</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>7.8100000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <v>25.139880000000002</v>
-      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>100.55952000000001</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>1.5630000000000002E-2</v>
-      </c>
-      <c r="E5">
-        <v>16.96528</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>67.86112</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>7.8100000000000001E-3</v>
-      </c>
-      <c r="E6">
-        <v>10.58929</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>42.35716</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="E7">
-        <v>29.375</v>
-      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>117.5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -623,114 +536,57 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>7.4761899999999999</v>
-      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>29.90476</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>12.75</v>
-      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>30.214289999999998</v>
-      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>120.85715999999999</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>26.148810000000001</v>
-      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>104.59524</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>28.375</v>
-      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>113.5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>20.321429999999999</v>
-      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>81.285719999999998</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -740,74 +596,35 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>11.42976</v>
-      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>45.71904</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>14.571429999999999</v>
-      </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>58.285719999999998</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>23.053570000000001</v>
-      </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>92.214280000000002</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>16.5</v>
-      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G17">
         <v>0</v>
       </c>
     </row>
@@ -815,36 +632,18 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>10.315480000000001</v>
-      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>41.261920000000003</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>26.380949999999999</v>
-      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>105.52379999999999</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,74 +656,35 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>18.383330000000001</v>
-      </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>73.533320000000003</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>13.508929999999999</v>
-      </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>54.035719999999998</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>14.107139999999999</v>
-      </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>56.428559999999997</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>16.241070000000001</v>
-      </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>64.964280000000002</v>
-      </c>
-      <c r="G23">
         <v>0</v>
       </c>
     </row>
@@ -932,44 +692,26 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>10.428570000000001</v>
-      </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>41.714280000000002</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>22.428570000000001</v>
-      </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>89.714280000000002</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1083,10 +825,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1108,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -1213,109 +955,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>6.8125</v>
+        <v>7.75</v>
       </c>
       <c r="E38">
-        <v>11.83333</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>47.333320000000001</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>6.8125</v>
+        <v>8.25</v>
       </c>
       <c r="E39">
-        <v>7.5541669999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>30.216667999999999</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>8.375</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>2.8533300000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>11.413320000000001</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41">
-        <v>8.3330000000000001E-2</v>
+        <v>1.625</v>
       </c>
       <c r="E41">
-        <v>10.45833</v>
+        <v>5.25</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>41.833320000000001</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>1.5833299999999999</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0.95833000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>3.8333200000000001</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>8</v>
       </c>
@@ -1323,83 +1074,86 @@
         <v>11.625</v>
       </c>
       <c r="E43">
-        <v>1.9166700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>7.6666800000000004</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>0.25</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>13.375</v>
+        <v>0.5</v>
       </c>
       <c r="E45">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>5</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>16.75</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -1408,37 +1162,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47">
-        <v>4.875</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
-        <v>9.25</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48">
-        <v>6.125</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -1447,142 +1204,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49">
-        <v>21.25</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>0.5</v>
-      </c>
-      <c r="E50">
-        <v>2.5</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>0.125</v>
-      </c>
-      <c r="E51">
-        <v>5.3333300000000001</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>21.333320000000001</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>0.5</v>
-      </c>
-      <c r="E52">
-        <v>2.6666699999999999</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>10.666679999999999</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>0.375</v>
-      </c>
-      <c r="E53">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>0.5</v>
-      </c>
-      <c r="E54">
-        <v>0.33333000000000002</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>1.3333200000000001</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>0.125</v>
-      </c>
-      <c r="E55">
-        <v>1.25</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/NJ/Overview.xlsx
+++ b/NJ/Overview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Run</t>
   </si>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F55" si="0">E3*4</f>
+        <f t="shared" ref="F3:F49" si="0">E3*4</f>
         <v>0</v>
       </c>
     </row>
@@ -1085,9 +1085,6 @@
       </c>
       <c r="H43" t="s">
         <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
